--- a/biology/Médecine/Médecine_traditionnelle_sénégalaise/Médecine_traditionnelle_sénégalaise.xlsx
+++ b/biology/Médecine/Médecine_traditionnelle_sénégalaise/Médecine_traditionnelle_sénégalaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_traditionnelle_s%C3%A9n%C3%A9galaise</t>
+          <t>Médecine_traditionnelle_sénégalaise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La médecine traditionnelle du Sénégal (ou MTS), faisant partie de la médecine traditionnelle africaine et des soins de santé du pays[1], comprend un ensemble de pratiques matérielles appuyées ou non par des supports magico-religieux. La majorité de la population sénégalaise fait recours à cette médécine traditionnelle aux fins de se soulager de divers maux[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médecine traditionnelle du Sénégal (ou MTS), faisant partie de la médecine traditionnelle africaine et des soins de santé du pays, comprend un ensemble de pratiques matérielles appuyées ou non par des supports magico-religieux. La majorité de la population sénégalaise fait recours à cette médécine traditionnelle aux fins de se soulager de divers maux,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_traditionnelle_s%C3%A9n%C3%A9galaise</t>
+          <t>Médecine_traditionnelle_sénégalaise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La médecine  traditionnelle sénégalaise tire son essence des civilisations et cultures qui ont façonné le pays depuis plusieurs décennies. Avant le XIXe siècle, la médecine était quasi traditionnelle au Sénégal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médecine  traditionnelle sénégalaise tire son essence des civilisations et cultures qui ont façonné le pays depuis plusieurs décennies. Avant le XIXe siècle, la médecine était quasi traditionnelle au Sénégal.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_traditionnelle_s%C3%A9n%C3%A9galaise</t>
+          <t>Médecine_traditionnelle_sénégalaise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est constituée des traitements à partir des plantes médicinales et de différentes sortes de recettes naturelles soutenues par des pratiques diverses selon l'ethnie et la croyance[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est constituée des traitements à partir des plantes médicinales et de différentes sortes de recettes naturelles soutenues par des pratiques diverses selon l'ethnie et la croyance.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_traditionnelle_s%C3%A9n%C3%A9galaise</t>
+          <t>Médecine_traditionnelle_sénégalaise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Appréciations et Critiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si la majorité des Sénégalais s'offrent ce mode de traitement  défendu par les tradipraticiens, les professionnels de la santé fustigent  par contre la pratique[4]. Ainsi, depuis plusieurs années, les autorités sénégalaises annoncent l' adoption d'une loi pour réglementer cette activité[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si la majorité des Sénégalais s'offrent ce mode de traitement  défendu par les tradipraticiens, les professionnels de la santé fustigent  par contre la pratique. Ainsi, depuis plusieurs années, les autorités sénégalaises annoncent l' adoption d'une loi pour réglementer cette activité.
 </t>
         </is>
       </c>
